--- a/templates/export/device.xlsx
+++ b/templates/export/device.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nspiraappcbd/Documents/GitHub/traccar/templates/export/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sainathavadhuta/Documents/code/traccar/templates/export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086ABBD0-79A1-B042-825F-308EBFE6CD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08ED369A-6313-D541-A711-BF688A39112F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Device" sheetId="1" r:id="rId1"/>
@@ -30,21 +30,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>jx:area(lastCell="N7")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -63,7 +49,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>device</t>
+          <t>devices</t>
         </r>
         <r>
           <rPr>
@@ -92,7 +78,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>", lastCell="N7")</t>
+          <t>", lastCell="N2")</t>
         </r>
       </text>
     </comment>
@@ -191,32 +177,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF444444"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -284,25 +248,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -405,7 +362,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>465840</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>168840</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -462,7 +419,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>465840</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>168840</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -519,7 +476,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -568,7 +525,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -617,7 +574,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -671,7 +628,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -725,7 +682,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -779,7 +736,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -833,7 +790,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -887,7 +844,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1231,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1000"/>
+  <dimension ref="A1:N995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1255,124 +1212,99 @@
     <col min="15" max="30" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="E1" s="4"/>
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="E2" s="4"/>
+    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2348,11 +2280,6 @@
     <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/templates/export/device.xlsx
+++ b/templates/export/device.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sainathavadhuta/Documents/code/traccar/templates/export/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nspiraappcbd/Documents/GitHub/traccar/templates/export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08ED369A-6313-D541-A711-BF688A39112F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4858E1C4-FE39-D143-B9C4-1692F79EE0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Device" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,20 @@
     <author/>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{BAAD9917-D832-534F-9EB1-17B76703F5AC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>jx:area(lastCell="N2")</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
@@ -419,7 +433,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>465840</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>168840</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1190,9 +1204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N995"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/templates/export/device.xlsx
+++ b/templates/export/device.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nspiraappcbd/Documents/GitHub/traccar/templates/export/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sainathavadhuta/Documents/code/traccar/templates/export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4858E1C4-FE39-D143-B9C4-1692F79EE0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42660B30-922C-9248-87CD-2E44EDE03FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Device" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>", lastCell="N2")</t>
+          <t>", lastCell="P2")</t>
         </r>
       </text>
     </comment>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Device Id</t>
   </si>
@@ -185,6 +185,18 @@
   </si>
   <si>
     <t>${device.longitude}</t>
+  </si>
+  <si>
+    <t>IMEI</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>${device.imei}</t>
+  </si>
+  <si>
+    <t>${device.serialNumber}</t>
   </si>
 </sst>
 </file>
@@ -1202,9 +1214,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N995"/>
+  <dimension ref="A1:P995"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1220,11 +1234,13 @@
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="55.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="30" width="8.6640625" customWidth="1"/>
+    <col min="14" max="14" width="19.6640625" customWidth="1"/>
+    <col min="15" max="15" width="17.83203125" customWidth="1"/>
+    <col min="16" max="16" width="55.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="32" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1265,10 +1281,16 @@
         <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -1309,10 +1331,16 @@
         <v>22</v>
       </c>
       <c r="N2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/templates/export/device.xlsx
+++ b/templates/export/device.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sainathavadhuta/Documents/code/traccar/templates/export/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nspiraappcbd/Documents/GitHub/traccar/templates/export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42660B30-922C-9248-87CD-2E44EDE03FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54A644D-003F-FC47-ABCA-31377FE3B47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Device" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>jx:area(lastCell="N2")</t>
+          <t>jx:area(lastCell="P2")</t>
         </r>
       </text>
     </comment>
@@ -1216,9 +1216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P995"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
